--- a/H2BR10/Released/BOM/H2BR10.xlsx
+++ b/H2BR10/Released/BOM/H2BR10.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obada\Desktop\hex\My Design\SPO2\H2BR1x\H2BR10\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\OneDrive\Documents\H2BR1x-Hardware\H2BR10\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C4A845-FA2F-4511-A339-2512FC9D0C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H21R00" sheetId="1" r:id="rId1"/>
+    <sheet name="H2BR10" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -312,8 +313,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,12 +405,6 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -530,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +594,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -619,18 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,25 +998,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -1035,7 +1027,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -1050,7 +1042,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1061,7 +1053,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1071,14 +1063,14 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1088,14 +1080,14 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="30">
         <v>44791</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1105,12 +1097,12 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1130,11 +1122,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="19"/>
@@ -1144,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
@@ -1184,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>77</v>
       </c>
@@ -1204,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>75</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>76</v>
       </c>
@@ -1244,8 +1236,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1257,14 +1249,14 @@
       <c r="D15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="28" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>59</v>
       </c>
@@ -1284,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>37</v>
       </c>
@@ -1324,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>83</v>
       </c>
@@ -1345,7 +1337,7 @@
       </c>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
@@ -1365,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>48</v>
       </c>
@@ -1385,8 +1377,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1405,8 +1397,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -1425,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>52</v>
       </c>
@@ -1445,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>55</v>
       </c>
@@ -1472,17 +1464,17 @@
     <mergeCell ref="D6:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="E13" r:id="rId2"/>
-    <hyperlink ref="E14" r:id="rId3"/>
-    <hyperlink ref="E17" r:id="rId4"/>
-    <hyperlink ref="E18" r:id="rId5"/>
-    <hyperlink ref="E20" r:id="rId6"/>
-    <hyperlink ref="E24" r:id="rId7"/>
-    <hyperlink ref="E25" r:id="rId8"/>
-    <hyperlink ref="E16" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E21" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
